--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Epha3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N2">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O2">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P2">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q2">
-        <v>0.1141069536287778</v>
+        <v>0.013167419358</v>
       </c>
       <c r="R2">
-        <v>1.026962582659</v>
+        <v>0.118506774222</v>
       </c>
       <c r="S2">
-        <v>0.002956575829687974</v>
+        <v>0.0003543247859103094</v>
       </c>
       <c r="T2">
-        <v>0.002956575829687974</v>
+        <v>0.0003543247859103094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P3">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q3">
-        <v>30.15488437864211</v>
+        <v>1.707043646794</v>
       </c>
       <c r="R3">
-        <v>271.393959407779</v>
+        <v>15.363392821146</v>
       </c>
       <c r="S3">
-        <v>0.7813301421662334</v>
+        <v>0.04593518731689489</v>
       </c>
       <c r="T3">
-        <v>0.7813301421662334</v>
+        <v>0.04593518731689489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,75 +643,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N4">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q4">
-        <v>3.556803789692112</v>
+        <v>0.00426403239</v>
       </c>
       <c r="R4">
-        <v>32.011234107229</v>
+        <v>0.03837629151</v>
       </c>
       <c r="S4">
-        <v>0.09215880173050349</v>
+        <v>0.0001147417214128174</v>
       </c>
       <c r="T4">
-        <v>0.09215880173050348</v>
+        <v>0.0001147417214128174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +726,40 @@
         <v>6.090071</v>
       </c>
       <c r="I5">
-        <v>0.8776223887075381</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J5">
-        <v>0.8776223887075382</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N5">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q5">
-        <v>0.04542042619255555</v>
+        <v>0.2326021417503333</v>
       </c>
       <c r="R5">
-        <v>0.408783835733</v>
+        <v>2.093419275753</v>
       </c>
       <c r="S5">
-        <v>0.001176868981113248</v>
+        <v>0.006259138699633895</v>
       </c>
       <c r="T5">
-        <v>0.001176868981113248</v>
+        <v>0.006259138699633895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H6">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I6">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J6">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N6">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O6">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P6">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q6">
-        <v>0.015911326553</v>
+        <v>30.15488437864211</v>
       </c>
       <c r="R6">
-        <v>0.143201938977</v>
+        <v>271.393959407779</v>
       </c>
       <c r="S6">
-        <v>0.0004122714874845981</v>
+        <v>0.8114439634005389</v>
       </c>
       <c r="T6">
-        <v>0.0004122714874845981</v>
+        <v>0.8114439634005389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,93 +829,93 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H7">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I7">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J7">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N7">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O7">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P7">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q7">
-        <v>4.204863921593001</v>
+        <v>0.07532402815166667</v>
       </c>
       <c r="R7">
-        <v>37.843775294337</v>
+        <v>0.6779162533649999</v>
       </c>
       <c r="S7">
-        <v>0.1089504069853067</v>
+        <v>0.002026909709724262</v>
       </c>
       <c r="T7">
-        <v>0.1089504069853067</v>
+        <v>0.002026909709724262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.283071</v>
+        <v>0.3315123333333334</v>
       </c>
       <c r="H8">
-        <v>0.849213</v>
+        <v>0.994537</v>
       </c>
       <c r="I8">
-        <v>0.1223776112924619</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="J8">
-        <v>0.1223776112924619</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,90 +924,152 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.752099666666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N8">
-        <v>5.256299</v>
+        <v>0.343743</v>
       </c>
       <c r="O8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q8">
-        <v>0.4959686047430001</v>
+        <v>0.03798501466566667</v>
       </c>
       <c r="R8">
-        <v>4.463717442687</v>
+        <v>0.341865131991</v>
       </c>
       <c r="S8">
-        <v>0.0128508276001981</v>
+        <v>0.00102214654392663</v>
       </c>
       <c r="T8">
-        <v>0.0128508276001981</v>
+        <v>0.00102214654392663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.994537</v>
+      </c>
+      <c r="I9">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J9">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N9">
+        <v>44.563349</v>
+      </c>
+      <c r="O9">
+        <v>0.9898917347297518</v>
+      </c>
+      <c r="P9">
+        <v>0.9898917347297518</v>
+      </c>
+      <c r="Q9">
+        <v>4.924433269379223</v>
+      </c>
+      <c r="R9">
+        <v>44.319899424413</v>
+      </c>
+      <c r="S9">
+        <v>0.1325125840123181</v>
+      </c>
+      <c r="T9">
+        <v>0.132512584012318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.283071</v>
-      </c>
-      <c r="H9">
-        <v>0.849213</v>
-      </c>
-      <c r="I9">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J9">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.994537</v>
+      </c>
+      <c r="I10">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J10">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.067123</v>
-      </c>
-      <c r="O9">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P9">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q9">
-        <v>0.006333524911</v>
-      </c>
-      <c r="R9">
-        <v>0.057001724199</v>
-      </c>
-      <c r="S9">
-        <v>0.0001641052194725028</v>
-      </c>
-      <c r="T9">
-        <v>0.0001641052194725028</v>
+      <c r="M10">
+        <v>0.037105</v>
+      </c>
+      <c r="N10">
+        <v>0.111315</v>
+      </c>
+      <c r="O10">
+        <v>0.0024726552407774</v>
+      </c>
+      <c r="P10">
+        <v>0.0024726552407774</v>
+      </c>
+      <c r="Q10">
+        <v>0.01230076512833333</v>
+      </c>
+      <c r="R10">
+        <v>0.110706886155</v>
+      </c>
+      <c r="S10">
+        <v>0.0003310038096403208</v>
+      </c>
+      <c r="T10">
+        <v>0.0003310038096403208</v>
       </c>
     </row>
   </sheetData>
